--- a/predictionsTwo.xlsx
+++ b/predictionsTwo.xlsx
@@ -441,467 +441,467 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>average critics</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>average audience</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>opening weekend</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>domestic gross</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>foreign gross</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>of gross earned abroad</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>budget ($million)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>budget recovered</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>imdb rating</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>adaptation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>based on a true story</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>remake</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>sequel</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>actor in a leading role</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actor in a supporting role</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>actress in a leading role</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actress in a supporting role</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>animated feature film</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>ben wilkins and thomas curley)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>best actor</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>best actor (matthew mcconaughey)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>best actress</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>best actress (cate blanchett)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>best adapted screenplay</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>best animated feature</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>best animated film</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>best art direction</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>best cinematography</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>best director</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>best editing</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>best film editing</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>best film editing (tom cross)</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>best makeup and hairstyling (adruitha lee and robin mathews)</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>best original screenplay</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>best original screenplay (spike jonze)</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>best original song</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>best picture</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>best sound</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>best sound editing</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>best sound mixing</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>best sound mixing (craig mann</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actor</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actor (j.k. simmons)</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actor (jared leto)</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actress</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actress (patricia arquette)</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>best visual effects</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>cinematography</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>costume design</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>directing</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>film editing</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>make up and hair styling</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>original song</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>production design</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>sound editing</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>sound mixing</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>visual effects</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>writing (adapted screenplay)</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>writing (original screenplay)</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>comedy</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>romantic</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>sci-fi</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>animation</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>mystery</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>musical</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>documentary</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>war</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>biography</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>drama</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>action</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>western</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>thrilled</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>horror</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>crime</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
           <t>_april</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>_august</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>_december</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>_february</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>_january</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>_july</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>_june</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>_march</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>_may</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>_november</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>_october</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>_september</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>action</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>actor in a leading role</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>actor in a supporting role</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>actress in a leading role</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>actress in a supporting role</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>adaptation</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>adventure</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>animated feature film</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>animation</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>average audience</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>average critics</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>based on a true story</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>ben wilkins and thomas curley)</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>best actor</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>best actor (matthew mcconaughey)</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>best actress</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>best actress (cate blanchett)</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>best adapted screenplay</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>best animated feature</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>best animated film</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>best art direction</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>best cinematography</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>best director</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>best editing</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>best film editing</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>best film editing (tom cross)</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>best makeup and hairstyling (adruitha lee and robin mathews)</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>best original screenplay</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>best original screenplay (spike jonze)</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>best original song</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>best picture</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>best sound</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>best sound editing</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>best sound mixing</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>best sound mixing (craig mann</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>best supporting actor</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>best supporting actor (j.k. simmons)</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>best supporting actor (jared leto)</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>best supporting actress</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>best supporting actress (patricia arquette)</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>best visual effects</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>biography</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>budget ($million)</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>budget recovered</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>cinematography</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>comedy</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>costume design</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>crime</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>directing</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>documentary</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>domestic gross</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>drama</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>family</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>fantasy</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>film editing</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>foreign gross</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>horror</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>imdb rating</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>make up and hair styling</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>musical</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>mystery</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>of gross earned abroad</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>opening weekend</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>original</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>original song</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>period</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>production design</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>remake</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>romantic</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>sci-fi</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>sequel</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>sound editing</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>sound mixing</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>sports</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>thrilled</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>visual effects</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>war</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>western</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>writing (adapted screenplay)</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>writing (original screenplay)</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
@@ -915,43 +915,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>66.30769230769231</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3640355</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>62525155</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>21000000000000</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.1507</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>66.30769230769231</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>21000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE2" t="n">
-        <v>3.1507</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>3640355</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>62525155</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1137,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>94.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>21000000</v>
+        <v>1</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
@@ -1202,40 +1202,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1399373</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3973263</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>115674827.125</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.4687875</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>63614285714285.72</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.82652857142857</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>63614285714285.72</v>
+        <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>10.82652857142857</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
@@ -1388,22 +1388,22 @@
         <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>3973263</v>
+        <v>0</v>
       </c>
       <c r="BM3" t="n">
         <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
         <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ3" t="n">
-        <v>115674827.125</v>
+        <v>0</v>
       </c>
       <c r="BR3" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1424,13 +1424,13 @@
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.4687875</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>1399373</v>
+        <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
@@ -1489,31 +1489,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>8901419</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>21360215</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>223648651.4166667</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>51.29999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>44000000000000</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.4855</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -1651,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>44000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.4855</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL4" t="n">
-        <v>21360215</v>
+        <v>0</v>
       </c>
       <c r="BM4" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>223648651.4166667</v>
+        <v>0</v>
       </c>
       <c r="BR4" t="n">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>51.29999999999999</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>8901419</v>
+        <v>0</v>
       </c>
       <c r="BZ4" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH4" t="n">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="CK4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL4" t="n">
         <v>0</v>
@@ -1776,31 +1776,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2919717</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>8286741</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>12959213</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>60000000000000</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.3541</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -1839,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>60000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.3541</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>8286741</v>
+        <v>0</v>
       </c>
       <c r="BM5" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>12959213</v>
+        <v>0</v>
       </c>
       <c r="BR5" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -1998,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="BY5" t="n">
-        <v>2919717</v>
+        <v>0</v>
       </c>
       <c r="BZ5" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL5" t="n">
         <v>0</v>
@@ -2063,31 +2063,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>14711101</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>50316123</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>40928790</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.4486</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>12000000000000</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.6037</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>6.7</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -2225,16 +2225,16 @@
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>12000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE6" t="n">
-        <v>7.6037</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" t="n">
         <v>0</v>
@@ -2246,10 +2246,10 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL6" t="n">
-        <v>50316123</v>
+        <v>0</v>
       </c>
       <c r="BM6" t="n">
         <v>0</v>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>40928790</v>
+        <v>0</v>
       </c>
       <c r="BR6" t="n">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
@@ -2285,10 +2285,10 @@
         <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.4486</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>14711101</v>
+        <v>0</v>
       </c>
       <c r="BZ6" t="n">
         <v>0</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE6" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN6" t="n">
         <v>0</v>
@@ -2350,34 +2350,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>16627491</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>48947356</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>40928790</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.4486</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>64000000000000</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.2253</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -2413,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -2512,16 +2512,16 @@
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>64000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE7" t="n">
-        <v>1.2253</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
         <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
@@ -2533,25 +2533,25 @@
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL7" t="n">
-        <v>48947356</v>
+        <v>0</v>
       </c>
       <c r="BM7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN7" t="n">
         <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>40928790</v>
+        <v>0</v>
       </c>
       <c r="BR7" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="BW7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.4486</v>
+        <v>1</v>
       </c>
       <c r="BY7" t="n">
-        <v>16627491</v>
+        <v>0</v>
       </c>
       <c r="BZ7" t="n">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="CD7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO7" t="n">
         <v>0</v>
@@ -2637,31 +2637,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2540240</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>6782066</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>8961988</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>57.3</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>73183333333333.33</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.619091666666666</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -2700,10 +2700,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -2799,16 +2799,16 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>73183333333333.33</v>
+        <v>0</v>
       </c>
       <c r="BE8" t="n">
-        <v>3.619091666666666</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8" t="n">
         <v>0</v>
@@ -2820,10 +2820,10 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL8" t="n">
-        <v>6782066</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>8961988</v>
+        <v>0</v>
       </c>
       <c r="BR8" t="n">
         <v>0</v>
       </c>
       <c r="BS8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -2859,13 +2859,13 @@
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>57.3</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>2540240</v>
+        <v>0</v>
       </c>
       <c r="BZ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA8" t="n">
         <v>0</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="CK8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL8" t="n">
         <v>0</v>
@@ -2924,31 +2924,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>31625971</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>100916094</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>30813958.125</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>12.753675</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>155000000000000</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3.0196</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -2987,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -3086,10 +3086,10 @@
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>155000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE9" t="n">
-        <v>3.0196</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
         <v>0</v>
@@ -3110,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>100916094</v>
+        <v>1</v>
       </c>
       <c r="BM9" t="n">
         <v>0</v>
       </c>
       <c r="BN9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO9" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>30813958.125</v>
+        <v>0</v>
       </c>
       <c r="BR9" t="n">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>12.753675</v>
+        <v>0</v>
       </c>
       <c r="BY9" t="n">
-        <v>31625971</v>
+        <v>0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA9" t="n">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="CF9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM9" t="n">
         <v>0</v>
@@ -3211,31 +3211,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1763070</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>3005408</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>208313889.7440476</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>51.72857142857141</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>5000000000000</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0.6011</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -3373,16 +3373,16 @@
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>5000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.6011</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
         <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH10" t="n">
         <v>0</v>
@@ -3394,10 +3394,10 @@
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL10" t="n">
-        <v>3005408</v>
+        <v>0</v>
       </c>
       <c r="BM10" t="n">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>208313889.7440476</v>
+        <v>0</v>
       </c>
       <c r="BR10" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="BT10" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>51.72857142857141</v>
+        <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>1763070</v>
+        <v>0</v>
       </c>
       <c r="BZ10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA10" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM10" t="n">
         <v>0</v>
@@ -3498,31 +3498,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>30035838</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>80001807</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>173888894</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>68.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>110000000000000</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.3081</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -3561,10 +3561,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>110000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE11" t="n">
-        <v>2.3081</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>80001807</v>
+        <v>1</v>
       </c>
       <c r="BM11" t="n">
         <v>0</v>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>173888894</v>
+        <v>0</v>
       </c>
       <c r="BR11" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>68.5</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>30035838</v>
+        <v>0</v>
       </c>
       <c r="BZ11" t="n">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH11" t="n">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL11" t="n">
         <v>0</v>
@@ -3785,40 +3785,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>26608020</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>68549695</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>62907452</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.4785</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>42000000000000</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3.1299</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.199999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -3848,10 +3848,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -3947,10 +3947,10 @@
         <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>42000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE12" t="n">
-        <v>3.1299</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>68549695</v>
+        <v>0</v>
       </c>
       <c r="BM12" t="n">
         <v>0</v>
@@ -3980,13 +3980,13 @@
         <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>62907452</v>
+        <v>0</v>
       </c>
       <c r="BR12" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>6.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4007,10 +4007,10 @@
         <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.4785</v>
+        <v>1</v>
       </c>
       <c r="BY12" t="n">
-        <v>26608020</v>
+        <v>0</v>
       </c>
       <c r="BZ12" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ12" t="n">
         <v>0</v>
@@ -4072,34 +4072,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>251569</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3689637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>33545454.390625</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>7.185384375</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>59857142857142.86</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.72075</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -4135,10 +4135,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -4234,10 +4234,10 @@
         <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>59857142857142.86</v>
+        <v>0</v>
       </c>
       <c r="BE13" t="n">
-        <v>1.72075</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
         <v>0</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>3689637</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
         <v>0</v>
@@ -4273,16 +4273,16 @@
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>33545454.390625</v>
+        <v>0</v>
       </c>
       <c r="BR13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -4294,13 +4294,13 @@
         <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>7.185384375</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>251569</v>
+        <v>0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA13" t="n">
         <v>0</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="CK13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL13" t="n">
         <v>0</v>
@@ -4359,34 +4359,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>11504710</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>29975167</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>29875204.68945312</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8.023744921875</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>55000000000000</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.7936</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -4422,10 +4422,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -4521,10 +4521,10 @@
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>55000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.7936</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
         <v>0</v>
@@ -4545,10 +4545,10 @@
         <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>29975167</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>29875204.68945312</v>
+        <v>0</v>
       </c>
       <c r="BR14" t="n">
         <v>0</v>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="BT14" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -4578,13 +4578,13 @@
         <v>0</v>
       </c>
       <c r="BW14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX14" t="n">
-        <v>8.023744921875</v>
+        <v>0</v>
       </c>
       <c r="BY14" t="n">
-        <v>11504710</v>
+        <v>0</v>
       </c>
       <c r="BZ14" t="n">
         <v>0</v>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL14" t="n">
         <v>0</v>
@@ -4646,40 +4646,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3106730</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>6546159</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>906254</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>5000000000000</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.4905</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -4709,10 +4709,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -4808,16 +4808,16 @@
         <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>5000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE15" t="n">
-        <v>1.4905</v>
+        <v>0</v>
       </c>
       <c r="BF15" t="n">
         <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH15" t="n">
         <v>0</v>
@@ -4829,10 +4829,10 @@
         <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL15" t="n">
-        <v>6546159</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>906254</v>
+        <v>0</v>
       </c>
       <c r="BR15" t="n">
         <v>0</v>
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -4868,13 +4868,13 @@
         <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>3106730</v>
+        <v>0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA15" t="n">
         <v>0</v>
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="CO15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP15" t="n">
         <v>0</v>
@@ -4933,40 +4933,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>5319280</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>17000612</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>25746173.77563477</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>8.966900537109375</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>25000000000000</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.6764</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -4996,10 +4996,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -5095,10 +5095,10 @@
         <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>25000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE16" t="n">
-        <v>1.6764</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
         <v>0</v>
@@ -5119,13 +5119,13 @@
         <v>0</v>
       </c>
       <c r="BL16" t="n">
-        <v>17000612</v>
+        <v>0</v>
       </c>
       <c r="BM16" t="n">
         <v>0</v>
       </c>
       <c r="BN16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO16" t="n">
         <v>0</v>
@@ -5134,16 +5134,16 @@
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>25746173.77563477</v>
+        <v>0</v>
       </c>
       <c r="BR16" t="n">
         <v>0</v>
       </c>
       <c r="BS16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT16" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -5155,13 +5155,13 @@
         <v>0</v>
       </c>
       <c r="BX16" t="n">
-        <v>8.966900537109375</v>
+        <v>0</v>
       </c>
       <c r="BY16" t="n">
-        <v>5319280</v>
+        <v>0</v>
       </c>
       <c r="BZ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA16" t="n">
         <v>0</v>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="CC16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD16" t="n">
         <v>0</v>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="CF16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG16" t="n">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO16" t="n">
         <v>0</v>
@@ -5220,31 +5220,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>75812205</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>211630916</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>333301651</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.6115999999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>195000000000000</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.7945</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>6.239999999999998</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -5256,10 +5256,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -5283,10 +5283,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -5382,10 +5382,10 @@
         <v>0</v>
       </c>
       <c r="BD17" t="n">
-        <v>195000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE17" t="n">
-        <v>2.7945</v>
+        <v>0</v>
       </c>
       <c r="BF17" t="n">
         <v>0</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="BL17" t="n">
-        <v>211630916</v>
+        <v>0</v>
       </c>
       <c r="BM17" t="n">
         <v>0</v>
@@ -5421,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>333301651</v>
+        <v>0</v>
       </c>
       <c r="BR17" t="n">
         <v>0</v>
@@ -5430,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>6.239999999999998</v>
+        <v>0</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -5442,10 +5442,10 @@
         <v>0</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.6115999999999999</v>
+        <v>0</v>
       </c>
       <c r="BY17" t="n">
-        <v>75812205</v>
+        <v>1</v>
       </c>
       <c r="BZ17" t="n">
         <v>0</v>
@@ -5469,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="CG17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH17" t="n">
         <v>0</v>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK17" t="n">
         <v>0</v>
@@ -5507,34 +5507,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>25010928</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>115234093</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>235984098</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.6718999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>50000000000000</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.024400000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>6.309333333333332</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -5558,10 +5558,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -5570,10 +5570,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -5669,10 +5669,10 @@
         <v>0</v>
       </c>
       <c r="BD18" t="n">
-        <v>50000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE18" t="n">
-        <v>7.024400000000001</v>
+        <v>0</v>
       </c>
       <c r="BF18" t="n">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="BL18" t="n">
-        <v>115234093</v>
+        <v>1</v>
       </c>
       <c r="BM18" t="n">
         <v>0</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>235984098</v>
+        <v>0</v>
       </c>
       <c r="BR18" t="n">
         <v>0</v>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>6.309333333333332</v>
+        <v>0</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -5729,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.6718999999999999</v>
+        <v>0</v>
       </c>
       <c r="BY18" t="n">
-        <v>25010928</v>
+        <v>0</v>
       </c>
       <c r="BZ18" t="n">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="CH18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI18" t="n">
         <v>0</v>
@@ -5794,34 +5794,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>16000495</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>44141550</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>48559860</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.5238</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40000000000000</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2.3175</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5857,10 +5857,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -5956,10 +5956,10 @@
         <v>0</v>
       </c>
       <c r="BD19" t="n">
-        <v>40000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE19" t="n">
-        <v>2.3175</v>
+        <v>0</v>
       </c>
       <c r="BF19" t="n">
         <v>0</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="BL19" t="n">
-        <v>44141550</v>
+        <v>0</v>
       </c>
       <c r="BM19" t="n">
         <v>0</v>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>48559860</v>
+        <v>0</v>
       </c>
       <c r="BR19" t="n">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="BT19" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -6016,10 +6016,10 @@
         <v>0</v>
       </c>
       <c r="BX19" t="n">
-        <v>0.5238</v>
+        <v>0</v>
       </c>
       <c r="BY19" t="n">
-        <v>16000495</v>
+        <v>0</v>
       </c>
       <c r="BZ19" t="n">
         <v>0</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="CH19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI19" t="n">
         <v>0</v>
@@ -6081,34 +6081,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>5861836</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>26514814</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>28851163.74758911</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>8.587763104248047</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>25000000000000</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.72075</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -6144,10 +6144,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -6243,10 +6243,10 @@
         <v>0</v>
       </c>
       <c r="BD20" t="n">
-        <v>25000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE20" t="n">
-        <v>1.72075</v>
+        <v>0</v>
       </c>
       <c r="BF20" t="n">
         <v>0</v>
@@ -6267,10 +6267,10 @@
         <v>0</v>
       </c>
       <c r="BL20" t="n">
-        <v>26514814</v>
+        <v>0</v>
       </c>
       <c r="BM20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN20" t="n">
         <v>0</v>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>28851163.74758911</v>
+        <v>0</v>
       </c>
       <c r="BR20" t="n">
         <v>0</v>
@@ -6291,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="BT20" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -6300,13 +6300,13 @@
         <v>0</v>
       </c>
       <c r="BW20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX20" t="n">
-        <v>8.587763104248047</v>
+        <v>0</v>
       </c>
       <c r="BY20" t="n">
-        <v>5861836</v>
+        <v>0</v>
       </c>
       <c r="BZ20" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="CG20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH20" t="n">
         <v>0</v>
@@ -6368,34 +6368,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>56237634</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>187164171</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>217884434</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.5379</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>175000000000000</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.3146</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.383288888888887</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -6428,13 +6428,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -6530,10 +6530,10 @@
         <v>0</v>
       </c>
       <c r="BD21" t="n">
-        <v>175000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE21" t="n">
-        <v>2.3146</v>
+        <v>0</v>
       </c>
       <c r="BF21" t="n">
         <v>0</v>
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="BL21" t="n">
-        <v>187164171</v>
+        <v>0</v>
       </c>
       <c r="BM21" t="n">
         <v>0</v>
@@ -6563,13 +6563,13 @@
         <v>0</v>
       </c>
       <c r="BO21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>217884434</v>
+        <v>0</v>
       </c>
       <c r="BR21" t="n">
         <v>0</v>
@@ -6578,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="BT21" t="n">
-        <v>6.383288888888887</v>
+        <v>0</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
@@ -6590,10 +6590,10 @@
         <v>0</v>
       </c>
       <c r="BX21" t="n">
-        <v>0.5379</v>
+        <v>0</v>
       </c>
       <c r="BY21" t="n">
-        <v>56237634</v>
+        <v>0</v>
       </c>
       <c r="BZ21" t="n">
         <v>0</v>
@@ -6617,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="CG21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH21" t="n">
         <v>0</v>
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="CN21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO21" t="n">
         <v>0</v>
@@ -6655,34 +6655,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>805000</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>10640105</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>4739790</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.3082</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>300000000000</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>61.5196</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -6718,10 +6718,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -6817,10 +6817,10 @@
         <v>0</v>
       </c>
       <c r="BD22" t="n">
-        <v>300000000000</v>
+        <v>0</v>
       </c>
       <c r="BE22" t="n">
-        <v>61.5196</v>
+        <v>0</v>
       </c>
       <c r="BF22" t="n">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="BL22" t="n">
-        <v>10640105</v>
+        <v>0</v>
       </c>
       <c r="BM22" t="n">
         <v>0</v>
@@ -6856,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>4739790</v>
+        <v>0</v>
       </c>
       <c r="BR22" t="n">
         <v>0</v>
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="BT22" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -6877,10 +6877,10 @@
         <v>0</v>
       </c>
       <c r="BX22" t="n">
-        <v>0.3082</v>
+        <v>0</v>
       </c>
       <c r="BY22" t="n">
-        <v>805000</v>
+        <v>0</v>
       </c>
       <c r="BZ22" t="n">
         <v>0</v>
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="CG22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH22" t="n">
         <v>0</v>
@@ -6925,7 +6925,7 @@
         <v>0</v>
       </c>
       <c r="CN22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO22" t="n">
         <v>0</v>
@@ -6942,31 +6942,31 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>4003993</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>9561064</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>17804403</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.6506000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2800000000000</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>9.773400000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>6.335508148148147</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -7005,10 +7005,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -7104,10 +7104,10 @@
         <v>0</v>
       </c>
       <c r="BD23" t="n">
-        <v>2800000000000</v>
+        <v>0</v>
       </c>
       <c r="BE23" t="n">
-        <v>9.773400000000001</v>
+        <v>0</v>
       </c>
       <c r="BF23" t="n">
         <v>0</v>
@@ -7128,10 +7128,10 @@
         <v>0</v>
       </c>
       <c r="BL23" t="n">
-        <v>9561064</v>
+        <v>0</v>
       </c>
       <c r="BM23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN23" t="n">
         <v>0</v>
@@ -7143,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>17804403</v>
+        <v>0</v>
       </c>
       <c r="BR23" t="n">
         <v>0</v>
@@ -7152,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="BT23" t="n">
-        <v>6.335508148148147</v>
+        <v>0</v>
       </c>
       <c r="BU23" t="n">
         <v>0</v>
@@ -7161,13 +7161,13 @@
         <v>0</v>
       </c>
       <c r="BW23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX23" t="n">
-        <v>0.6506000000000001</v>
+        <v>0</v>
       </c>
       <c r="BY23" t="n">
-        <v>4003993</v>
+        <v>0</v>
       </c>
       <c r="BZ23" t="n">
         <v>0</v>
@@ -7182,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="CD23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE23" t="n">
         <v>0</v>
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="CL23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM23" t="n">
         <v>0</v>
@@ -7229,31 +7229,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1755325</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>4330720</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>102933</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0232</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>63614285714285.72</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>10.82652857142857</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -7265,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -7292,10 +7292,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -7391,10 +7391,10 @@
         <v>0</v>
       </c>
       <c r="BD24" t="n">
-        <v>63614285714285.72</v>
+        <v>0</v>
       </c>
       <c r="BE24" t="n">
-        <v>10.82652857142857</v>
+        <v>0</v>
       </c>
       <c r="BF24" t="n">
         <v>0</v>
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="BL24" t="n">
-        <v>4330720</v>
+        <v>0</v>
       </c>
       <c r="BM24" t="n">
         <v>0</v>
@@ -7430,31 +7430,31 @@
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>102933</v>
+        <v>1</v>
       </c>
       <c r="BR24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
       </c>
       <c r="BV24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX24" t="n">
-        <v>0.0232</v>
+        <v>0</v>
       </c>
       <c r="BY24" t="n">
-        <v>1755325</v>
+        <v>0</v>
       </c>
       <c r="BZ24" t="n">
         <v>0</v>
@@ -7463,13 +7463,13 @@
         <v>0</v>
       </c>
       <c r="CB24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC24" t="n">
         <v>0</v>
       </c>
       <c r="CD24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE24" t="n">
         <v>0</v>
@@ -7490,10 +7490,10 @@
         <v>0</v>
       </c>
       <c r="CK24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM24" t="n">
         <v>0</v>
@@ -7516,40 +7516,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3600355</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>9030855</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>9042578</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>6000000000000</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3.0122</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -7579,10 +7579,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -7678,10 +7678,10 @@
         <v>0</v>
       </c>
       <c r="BD25" t="n">
-        <v>6000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE25" t="n">
-        <v>3.0122</v>
+        <v>0</v>
       </c>
       <c r="BF25" t="n">
         <v>0</v>
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="BL25" t="n">
-        <v>9030855</v>
+        <v>0</v>
       </c>
       <c r="BM25" t="n">
         <v>0</v>
@@ -7717,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="BQ25" t="n">
-        <v>9042578</v>
+        <v>0</v>
       </c>
       <c r="BR25" t="n">
         <v>0</v>
@@ -7726,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="BT25" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="BU25" t="n">
         <v>0</v>
@@ -7738,13 +7738,13 @@
         <v>0</v>
       </c>
       <c r="BX25" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BY25" t="n">
-        <v>3600355</v>
+        <v>0</v>
       </c>
       <c r="BZ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA25" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="CN25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO25" t="n">
         <v>0</v>
@@ -7803,40 +7803,40 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>63.625</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>21115423.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2033057</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3475600</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.6309</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5000000000000</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.1017</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -7866,10 +7866,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>63.625</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -7965,10 +7965,10 @@
         <v>0</v>
       </c>
       <c r="BD26" t="n">
-        <v>5000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE26" t="n">
-        <v>1.1017</v>
+        <v>0</v>
       </c>
       <c r="BF26" t="n">
         <v>0</v>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="BL26" t="n">
-        <v>2033057</v>
+        <v>0</v>
       </c>
       <c r="BM26" t="n">
         <v>0</v>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="BQ26" t="n">
-        <v>3475600</v>
+        <v>1</v>
       </c>
       <c r="BR26" t="n">
         <v>0</v>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="BT26" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="BU26" t="n">
         <v>0</v>
@@ -8022,22 +8022,22 @@
         <v>0</v>
       </c>
       <c r="BW26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX26" t="n">
-        <v>0.6309</v>
+        <v>0</v>
       </c>
       <c r="BY26" t="n">
-        <v>21115423.5</v>
+        <v>0</v>
       </c>
       <c r="BZ26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA26" t="n">
         <v>0</v>
       </c>
       <c r="CB26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC26" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="CK26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL26" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="CN26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO26" t="n">
         <v>0</v>
@@ -8090,31 +8090,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>700160</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2241980</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1033099</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>30.3</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>34666666666666.66</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.5647</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -8153,10 +8153,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -8252,10 +8252,10 @@
         <v>0</v>
       </c>
       <c r="BD27" t="n">
-        <v>34666666666666.66</v>
+        <v>0</v>
       </c>
       <c r="BE27" t="n">
-        <v>1.5647</v>
+        <v>0</v>
       </c>
       <c r="BF27" t="n">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="BL27" t="n">
-        <v>2241980</v>
+        <v>0</v>
       </c>
       <c r="BM27" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="BQ27" t="n">
-        <v>1033099</v>
+        <v>0</v>
       </c>
       <c r="BR27" t="n">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="BT27" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="BU27" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="BX27" t="n">
-        <v>30.3</v>
+        <v>0</v>
       </c>
       <c r="BY27" t="n">
-        <v>700160</v>
+        <v>0</v>
       </c>
       <c r="BZ27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA27" t="n">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="CG27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH27" t="n">
         <v>0</v>
@@ -8377,31 +8377,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>204793</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>20437883</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>315805</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>6200000000000</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3.3474</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -8440,10 +8440,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -8539,10 +8539,10 @@
         <v>0</v>
       </c>
       <c r="BD28" t="n">
-        <v>6200000000000</v>
+        <v>0</v>
       </c>
       <c r="BE28" t="n">
-        <v>3.3474</v>
+        <v>0</v>
       </c>
       <c r="BF28" t="n">
         <v>0</v>
@@ -8563,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="BL28" t="n">
-        <v>20437883</v>
+        <v>1</v>
       </c>
       <c r="BM28" t="n">
         <v>0</v>
@@ -8578,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="BQ28" t="n">
-        <v>315805</v>
+        <v>0</v>
       </c>
       <c r="BR28" t="n">
         <v>0</v>
@@ -8587,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="BT28" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="BU28" t="n">
         <v>0</v>
@@ -8599,13 +8599,13 @@
         <v>0</v>
       </c>
       <c r="BX28" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="BY28" t="n">
-        <v>204793</v>
+        <v>0</v>
       </c>
       <c r="BZ28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA28" t="n">
         <v>0</v>
@@ -8623,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="CF28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG28" t="n">
         <v>0</v>
@@ -8664,31 +8664,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>246305</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>15500045</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>6887012</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>30.8</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>4000000000000</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5.596799999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -8697,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -8727,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -8826,16 +8826,16 @@
         <v>0</v>
       </c>
       <c r="BD29" t="n">
-        <v>4000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE29" t="n">
-        <v>5.596799999999999</v>
+        <v>0</v>
       </c>
       <c r="BF29" t="n">
         <v>0</v>
       </c>
       <c r="BG29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH29" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="BK29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL29" t="n">
-        <v>15500045</v>
+        <v>0</v>
       </c>
       <c r="BM29" t="n">
         <v>0</v>
@@ -8865,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="BQ29" t="n">
-        <v>6887012</v>
+        <v>0</v>
       </c>
       <c r="BR29" t="n">
         <v>0</v>
@@ -8874,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="BT29" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="BU29" t="n">
         <v>0</v>
@@ -8886,13 +8886,13 @@
         <v>0</v>
       </c>
       <c r="BX29" t="n">
-        <v>30.8</v>
+        <v>0</v>
       </c>
       <c r="BY29" t="n">
-        <v>246305</v>
+        <v>0</v>
       </c>
       <c r="BZ29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA29" t="n">
         <v>0</v>
@@ -8925,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="CK29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL29" t="n">
         <v>0</v>
@@ -8951,31 +8951,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>10101066</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>40501717</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>26387576.71603775</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>9.595758492279053</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>45000000000000</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3.355</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -8984,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -9113,16 +9113,16 @@
         <v>0</v>
       </c>
       <c r="BD30" t="n">
-        <v>45000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE30" t="n">
-        <v>3.355</v>
+        <v>0</v>
       </c>
       <c r="BF30" t="n">
         <v>0</v>
       </c>
       <c r="BG30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH30" t="n">
         <v>0</v>
@@ -9134,25 +9134,25 @@
         <v>0</v>
       </c>
       <c r="BK30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL30" t="n">
-        <v>40501717</v>
+        <v>0</v>
       </c>
       <c r="BM30" t="n">
         <v>0</v>
       </c>
       <c r="BN30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ30" t="n">
-        <v>26387576.71603775</v>
+        <v>0</v>
       </c>
       <c r="BR30" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="BT30" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="BU30" t="n">
         <v>0</v>
@@ -9173,13 +9173,13 @@
         <v>0</v>
       </c>
       <c r="BX30" t="n">
-        <v>9.595758492279053</v>
+        <v>1</v>
       </c>
       <c r="BY30" t="n">
-        <v>10101066</v>
+        <v>0</v>
       </c>
       <c r="BZ30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA30" t="n">
         <v>0</v>
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="CK30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL30" t="n">
         <v>0</v>
@@ -9238,31 +9238,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>6444896</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>14947969</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>14452857</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.4916</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>80000000000000</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.3675</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -9271,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -9301,10 +9301,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="BD31" t="n">
-        <v>80000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE31" t="n">
-        <v>0.3675</v>
+        <v>0</v>
       </c>
       <c r="BF31" t="n">
         <v>0</v>
@@ -9424,10 +9424,10 @@
         <v>0</v>
       </c>
       <c r="BL31" t="n">
-        <v>14947969</v>
+        <v>0</v>
       </c>
       <c r="BM31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN31" t="n">
         <v>0</v>
@@ -9439,16 +9439,16 @@
         <v>0</v>
       </c>
       <c r="BQ31" t="n">
-        <v>14452857</v>
+        <v>1</v>
       </c>
       <c r="BR31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS31" t="n">
         <v>0</v>
       </c>
       <c r="BT31" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="BU31" t="n">
         <v>0</v>
@@ -9460,10 +9460,10 @@
         <v>1</v>
       </c>
       <c r="BX31" t="n">
-        <v>0.4916</v>
+        <v>0</v>
       </c>
       <c r="BY31" t="n">
-        <v>6444896</v>
+        <v>0</v>
       </c>
       <c r="BZ31" t="n">
         <v>1</v>
@@ -9472,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="CB31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC31" t="n">
         <v>0</v>
@@ -9525,37 +9525,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>7768371</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>29796477</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>112069769.6666667</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>60000000000000</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>5.583269230769232</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>6.351208691358024</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -9588,13 +9588,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -9687,10 +9687,10 @@
         <v>0</v>
       </c>
       <c r="BD32" t="n">
-        <v>60000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE32" t="n">
-        <v>5.583269230769232</v>
+        <v>0</v>
       </c>
       <c r="BF32" t="n">
         <v>0</v>
@@ -9711,10 +9711,10 @@
         <v>0</v>
       </c>
       <c r="BL32" t="n">
-        <v>29796477</v>
+        <v>0</v>
       </c>
       <c r="BM32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN32" t="n">
         <v>0</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="BQ32" t="n">
-        <v>112069769.6666667</v>
+        <v>0</v>
       </c>
       <c r="BR32" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="BT32" t="n">
-        <v>6.351208691358024</v>
+        <v>0</v>
       </c>
       <c r="BU32" t="n">
         <v>0</v>
@@ -9744,13 +9744,13 @@
         <v>0</v>
       </c>
       <c r="BW32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX32" t="n">
         <v>0</v>
       </c>
       <c r="BY32" t="n">
-        <v>7768371</v>
+        <v>0</v>
       </c>
       <c r="BZ32" t="n">
         <v>0</v>
@@ -9774,7 +9774,7 @@
         <v>0</v>
       </c>
       <c r="CG32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH32" t="n">
         <v>0</v>
@@ -9812,31 +9812,31 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>4651571</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>8237403</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>28825147.30554247</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>6.945228303813934</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>50000000000000</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.2546</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="BD33" t="n">
-        <v>50000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE33" t="n">
-        <v>0.2546</v>
+        <v>0</v>
       </c>
       <c r="BF33" t="n">
         <v>0</v>
@@ -9998,10 +9998,10 @@
         <v>0</v>
       </c>
       <c r="BL33" t="n">
-        <v>8237403</v>
+        <v>0</v>
       </c>
       <c r="BM33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN33" t="n">
         <v>0</v>
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="BQ33" t="n">
-        <v>28825147.30554247</v>
+        <v>0</v>
       </c>
       <c r="BR33" t="n">
         <v>0</v>
@@ -10022,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="BT33" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="BU33" t="n">
         <v>0</v>
@@ -10031,13 +10031,13 @@
         <v>0</v>
       </c>
       <c r="BW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX33" t="n">
-        <v>6.945228303813934</v>
+        <v>0</v>
       </c>
       <c r="BY33" t="n">
-        <v>4651571</v>
+        <v>0</v>
       </c>
       <c r="BZ33" t="n">
         <v>0</v>
@@ -10085,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="CO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP33" t="n">
         <v>0</v>
@@ -10099,31 +10099,31 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>34952180</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>115620025</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>234951977</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0.6701999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>75000000000000</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4.6743</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>6.367955937448558</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10138,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10162,10 +10162,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -10261,10 +10261,10 @@
         <v>0</v>
       </c>
       <c r="BD34" t="n">
-        <v>75000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE34" t="n">
-        <v>4.6743</v>
+        <v>0</v>
       </c>
       <c r="BF34" t="n">
         <v>0</v>
@@ -10285,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="BL34" t="n">
-        <v>115620025</v>
+        <v>0</v>
       </c>
       <c r="BM34" t="n">
         <v>0</v>
@@ -10300,31 +10300,31 @@
         <v>0</v>
       </c>
       <c r="BQ34" t="n">
-        <v>234951977</v>
+        <v>0</v>
       </c>
       <c r="BR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS34" t="n">
         <v>0</v>
       </c>
       <c r="BT34" t="n">
-        <v>6.367955937448558</v>
+        <v>0</v>
       </c>
       <c r="BU34" t="n">
         <v>0</v>
       </c>
       <c r="BV34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW34" t="n">
         <v>0</v>
       </c>
       <c r="BX34" t="n">
-        <v>0.6701999999999999</v>
+        <v>0</v>
       </c>
       <c r="BY34" t="n">
-        <v>34952180</v>
+        <v>0</v>
       </c>
       <c r="BZ34" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="CG34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH34" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="CJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK34" t="n">
         <v>0</v>
@@ -10386,40 +10386,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>13743111</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>31713110</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1819483</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.05429999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>19000000000000</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.7649</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>6.372486333278462</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10449,10 +10449,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -10548,16 +10548,16 @@
         <v>0</v>
       </c>
       <c r="BD35" t="n">
-        <v>19000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE35" t="n">
-        <v>1.7649</v>
+        <v>0</v>
       </c>
       <c r="BF35" t="n">
         <v>0</v>
       </c>
       <c r="BG35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH35" t="n">
         <v>0</v>
@@ -10569,10 +10569,10 @@
         <v>0</v>
       </c>
       <c r="BK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL35" t="n">
-        <v>31713110</v>
+        <v>0</v>
       </c>
       <c r="BM35" t="n">
         <v>0</v>
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="BQ35" t="n">
-        <v>1819483</v>
+        <v>0</v>
       </c>
       <c r="BR35" t="n">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="BT35" t="n">
-        <v>6.372486333278462</v>
+        <v>0</v>
       </c>
       <c r="BU35" t="n">
         <v>0</v>
@@ -10608,13 +10608,13 @@
         <v>0</v>
       </c>
       <c r="BX35" t="n">
-        <v>0.05429999999999999</v>
+        <v>0</v>
       </c>
       <c r="BY35" t="n">
-        <v>13743111</v>
+        <v>0</v>
       </c>
       <c r="BZ35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA35" t="n">
         <v>0</v>
@@ -10656,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="CN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO35" t="n">
         <v>0</v>
@@ -10673,31 +10673,31 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>26347631</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>54733739</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>67400000</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>55.2</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>9000000000000</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>13.5704</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10736,10 +10736,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -10835,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="BD36" t="n">
-        <v>9000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE36" t="n">
-        <v>13.5704</v>
+        <v>0</v>
       </c>
       <c r="BF36" t="n">
         <v>0</v>
@@ -10859,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="BL36" t="n">
-        <v>54733739</v>
+        <v>0</v>
       </c>
       <c r="BM36" t="n">
         <v>0</v>
@@ -10874,16 +10874,16 @@
         <v>0</v>
       </c>
       <c r="BQ36" t="n">
-        <v>67400000</v>
+        <v>0</v>
       </c>
       <c r="BR36" t="n">
         <v>0</v>
       </c>
       <c r="BS36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT36" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="BU36" t="n">
         <v>0</v>
@@ -10895,13 +10895,13 @@
         <v>0</v>
       </c>
       <c r="BX36" t="n">
-        <v>55.2</v>
+        <v>0</v>
       </c>
       <c r="BY36" t="n">
-        <v>26347631</v>
+        <v>0</v>
       </c>
       <c r="BZ36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA36" t="n">
         <v>0</v>
@@ -10910,13 +10910,13 @@
         <v>0</v>
       </c>
       <c r="CC36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD36" t="n">
         <v>0</v>
       </c>
       <c r="CE36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF36" t="n">
         <v>0</v>
@@ -10960,31 +10960,31 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>13582231</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>68566296</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>118577563.8444445</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>4.078813333333334</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>10000000000000</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>6.856599999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>6.377318755497027</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -11023,10 +11023,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -11122,16 +11122,16 @@
         <v>0</v>
       </c>
       <c r="BD37" t="n">
-        <v>10000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE37" t="n">
-        <v>6.856599999999999</v>
+        <v>0</v>
       </c>
       <c r="BF37" t="n">
         <v>0</v>
       </c>
       <c r="BG37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH37" t="n">
         <v>0</v>
@@ -11143,10 +11143,10 @@
         <v>0</v>
       </c>
       <c r="BK37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL37" t="n">
-        <v>68566296</v>
+        <v>0</v>
       </c>
       <c r="BM37" t="n">
         <v>0</v>
@@ -11161,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="BQ37" t="n">
-        <v>118577563.8444445</v>
+        <v>0</v>
       </c>
       <c r="BR37" t="n">
         <v>0</v>
@@ -11170,7 +11170,7 @@
         <v>0</v>
       </c>
       <c r="BT37" t="n">
-        <v>6.377318755497027</v>
+        <v>0</v>
       </c>
       <c r="BU37" t="n">
         <v>0</v>
@@ -11182,13 +11182,13 @@
         <v>0</v>
       </c>
       <c r="BX37" t="n">
-        <v>4.078813333333334</v>
+        <v>0</v>
       </c>
       <c r="BY37" t="n">
-        <v>13582231</v>
+        <v>0</v>
       </c>
       <c r="BZ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA37" t="n">
         <v>0</v>
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="CM37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN37" t="n">
         <v>0</v>
@@ -11247,34 +11247,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>8137584</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>26402818</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>7371145</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>21.9</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>73183333333333.33</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3.619091666666666</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -11298,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -11310,10 +11310,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -11409,10 +11409,10 @@
         <v>0</v>
       </c>
       <c r="BD38" t="n">
-        <v>73183333333333.33</v>
+        <v>0</v>
       </c>
       <c r="BE38" t="n">
-        <v>3.619091666666666</v>
+        <v>0</v>
       </c>
       <c r="BF38" t="n">
         <v>0</v>
@@ -11433,10 +11433,10 @@
         <v>0</v>
       </c>
       <c r="BL38" t="n">
-        <v>26402818</v>
+        <v>0</v>
       </c>
       <c r="BM38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN38" t="n">
         <v>0</v>
@@ -11448,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="BQ38" t="n">
-        <v>7371145</v>
+        <v>0</v>
       </c>
       <c r="BR38" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="BT38" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="BU38" t="n">
         <v>0</v>
@@ -11466,13 +11466,13 @@
         <v>0</v>
       </c>
       <c r="BW38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX38" t="n">
-        <v>21.9</v>
+        <v>0</v>
       </c>
       <c r="BY38" t="n">
-        <v>8137584</v>
+        <v>0</v>
       </c>
       <c r="BZ38" t="n">
         <v>0</v>
@@ -11493,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="CF38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG38" t="n">
         <v>0</v>
@@ -11534,34 +11534,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>126707459</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>718732821</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>756440284</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.5128</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>170000000000000</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.6775</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11585,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -11597,10 +11597,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -11696,10 +11696,10 @@
         <v>0</v>
       </c>
       <c r="BD39" t="n">
-        <v>170000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE39" t="n">
-        <v>8.6775</v>
+        <v>0</v>
       </c>
       <c r="BF39" t="n">
         <v>0</v>
@@ -11720,10 +11720,10 @@
         <v>0</v>
       </c>
       <c r="BL39" t="n">
-        <v>718732821</v>
+        <v>0</v>
       </c>
       <c r="BM39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN39" t="n">
         <v>0</v>
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="BQ39" t="n">
-        <v>756440284</v>
+        <v>0</v>
       </c>
       <c r="BR39" t="n">
         <v>0</v>
@@ -11744,7 +11744,7 @@
         <v>0</v>
       </c>
       <c r="BT39" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="BU39" t="n">
         <v>0</v>
@@ -11753,13 +11753,13 @@
         <v>0</v>
       </c>
       <c r="BW39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX39" t="n">
-        <v>0.5128</v>
+        <v>0</v>
       </c>
       <c r="BY39" t="n">
-        <v>126707459</v>
+        <v>0</v>
       </c>
       <c r="BZ39" t="n">
         <v>0</v>
@@ -11780,7 +11780,7 @@
         <v>0</v>
       </c>
       <c r="CF39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG39" t="n">
         <v>0</v>
@@ -11821,31 +11821,31 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>47776293</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>110500138</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>275400000</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>170000000000000</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -11857,10 +11857,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11884,10 +11884,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -11983,10 +11983,10 @@
         <v>0</v>
       </c>
       <c r="BD40" t="n">
-        <v>170000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE40" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="BF40" t="n">
         <v>0</v>
@@ -12007,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="BL40" t="n">
-        <v>110500138</v>
+        <v>0</v>
       </c>
       <c r="BM40" t="n">
         <v>0</v>
@@ -12022,7 +12022,7 @@
         <v>0</v>
       </c>
       <c r="BQ40" t="n">
-        <v>275400000</v>
+        <v>0</v>
       </c>
       <c r="BR40" t="n">
         <v>0</v>
@@ -12031,7 +12031,7 @@
         <v>0</v>
       </c>
       <c r="BT40" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BU40" t="n">
         <v>0</v>
@@ -12043,10 +12043,10 @@
         <v>0</v>
       </c>
       <c r="BX40" t="n">
-        <v>71.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="BY40" t="n">
-        <v>47776293</v>
+        <v>1</v>
       </c>
       <c r="BZ40" t="n">
         <v>0</v>
@@ -12070,7 +12070,7 @@
         <v>0</v>
       </c>
       <c r="CG40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH40" t="n">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="CM40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN40" t="n">
         <v>0</v>
@@ -12108,37 +12108,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>10845330</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>32316575</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>9325905</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.224</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>15000000000000</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.7762</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>6.455806672530161</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -12171,13 +12171,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
@@ -12270,10 +12270,10 @@
         <v>0</v>
       </c>
       <c r="BD41" t="n">
-        <v>15000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE41" t="n">
-        <v>2.7762</v>
+        <v>0</v>
       </c>
       <c r="BF41" t="n">
         <v>0</v>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="BL41" t="n">
-        <v>32316575</v>
+        <v>0</v>
       </c>
       <c r="BM41" t="n">
         <v>0</v>
@@ -12309,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="BQ41" t="n">
-        <v>9325905</v>
+        <v>0</v>
       </c>
       <c r="BR41" t="n">
         <v>0</v>
@@ -12318,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="BT41" t="n">
-        <v>6.455806672530161</v>
+        <v>0</v>
       </c>
       <c r="BU41" t="n">
         <v>0</v>
@@ -12330,10 +12330,10 @@
         <v>0</v>
       </c>
       <c r="BX41" t="n">
-        <v>0.224</v>
+        <v>0</v>
       </c>
       <c r="BY41" t="n">
-        <v>10845330</v>
+        <v>0</v>
       </c>
       <c r="BZ41" t="n">
         <v>0</v>
@@ -12342,7 +12342,7 @@
         <v>0</v>
       </c>
       <c r="CB41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC41" t="n">
         <v>0</v>
@@ -12354,7 +12354,7 @@
         <v>0</v>
       </c>
       <c r="CF41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG41" t="n">
         <v>0</v>
@@ -12369,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="CK41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL41" t="n">
         <v>0</v>
@@ -12395,34 +12395,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>8351109</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>17199425</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>38400000</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>48000000000000</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.1583</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -12458,10 +12458,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -12557,10 +12557,10 @@
         <v>0</v>
       </c>
       <c r="BD42" t="n">
-        <v>48000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE42" t="n">
-        <v>1.1583</v>
+        <v>0</v>
       </c>
       <c r="BF42" t="n">
         <v>0</v>
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="BL42" t="n">
-        <v>17199425</v>
+        <v>0</v>
       </c>
       <c r="BM42" t="n">
         <v>0</v>
@@ -12596,7 +12596,7 @@
         <v>0</v>
       </c>
       <c r="BQ42" t="n">
-        <v>38400000</v>
+        <v>0</v>
       </c>
       <c r="BR42" t="n">
         <v>0</v>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="BT42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BU42" t="n">
         <v>0</v>
@@ -12617,10 +12617,10 @@
         <v>0</v>
       </c>
       <c r="BX42" t="n">
-        <v>69.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="BY42" t="n">
-        <v>8351109</v>
+        <v>1</v>
       </c>
       <c r="BZ42" t="n">
         <v>0</v>
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="CD42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE42" t="n">
         <v>0</v>
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="CN42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO42" t="n">
         <v>0</v>
@@ -12682,31 +12682,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>918112</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>6306897</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>724392</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>60000000000000</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.1172</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -12715,7 +12715,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -12745,10 +12745,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -12844,10 +12844,10 @@
         <v>0</v>
       </c>
       <c r="BD43" t="n">
-        <v>60000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE43" t="n">
-        <v>0.1172</v>
+        <v>0</v>
       </c>
       <c r="BF43" t="n">
         <v>0</v>
@@ -12868,7 +12868,7 @@
         <v>0</v>
       </c>
       <c r="BL43" t="n">
-        <v>6306897</v>
+        <v>0</v>
       </c>
       <c r="BM43" t="n">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BQ43" t="n">
-        <v>724392</v>
+        <v>0</v>
       </c>
       <c r="BR43" t="n">
         <v>0</v>
@@ -12892,7 +12892,7 @@
         <v>0</v>
       </c>
       <c r="BT43" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="BU43" t="n">
         <v>0</v>
@@ -12904,13 +12904,13 @@
         <v>0</v>
       </c>
       <c r="BX43" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BY43" t="n">
-        <v>918112</v>
+        <v>0</v>
       </c>
       <c r="BZ43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA43" t="n">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="CG43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH43" t="n">
         <v>0</v>
@@ -12969,34 +12969,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>2250430</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>12668325</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2881115.25</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>25.075</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>38000000000000</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.5647</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -13032,10 +13032,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -13131,10 +13131,10 @@
         <v>0</v>
       </c>
       <c r="BD44" t="n">
-        <v>38000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE44" t="n">
-        <v>1.5647</v>
+        <v>0</v>
       </c>
       <c r="BF44" t="n">
         <v>0</v>
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="BL44" t="n">
-        <v>12668325</v>
+        <v>0</v>
       </c>
       <c r="BM44" t="n">
         <v>0</v>
@@ -13170,7 +13170,7 @@
         <v>0</v>
       </c>
       <c r="BQ44" t="n">
-        <v>2881115.25</v>
+        <v>0</v>
       </c>
       <c r="BR44" t="n">
         <v>0</v>
@@ -13179,7 +13179,7 @@
         <v>0</v>
       </c>
       <c r="BT44" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="BU44" t="n">
         <v>0</v>
@@ -13191,10 +13191,10 @@
         <v>0</v>
       </c>
       <c r="BX44" t="n">
-        <v>25.075</v>
+        <v>0</v>
       </c>
       <c r="BY44" t="n">
-        <v>2250430</v>
+        <v>0</v>
       </c>
       <c r="BZ44" t="n">
         <v>0</v>
@@ -13218,7 +13218,7 @@
         <v>0</v>
       </c>
       <c r="CG44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH44" t="n">
         <v>0</v>
@@ -13256,37 +13256,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>14504315</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>66220028</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>9724832</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.1281</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>48000000000000</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.5822</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>6.486193784032172</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -13319,13 +13319,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
@@ -13418,16 +13418,16 @@
         <v>0</v>
       </c>
       <c r="BD45" t="n">
-        <v>48000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE45" t="n">
-        <v>1.5822</v>
+        <v>0</v>
       </c>
       <c r="BF45" t="n">
         <v>0</v>
       </c>
       <c r="BG45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH45" t="n">
         <v>0</v>
@@ -13439,10 +13439,10 @@
         <v>0</v>
       </c>
       <c r="BK45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL45" t="n">
-        <v>66220028</v>
+        <v>0</v>
       </c>
       <c r="BM45" t="n">
         <v>0</v>
@@ -13457,7 +13457,7 @@
         <v>0</v>
       </c>
       <c r="BQ45" t="n">
-        <v>9724832</v>
+        <v>0</v>
       </c>
       <c r="BR45" t="n">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="BT45" t="n">
-        <v>6.486193784032172</v>
+        <v>0</v>
       </c>
       <c r="BU45" t="n">
         <v>0</v>
@@ -13478,10 +13478,10 @@
         <v>0</v>
       </c>
       <c r="BX45" t="n">
-        <v>0.1281</v>
+        <v>0</v>
       </c>
       <c r="BY45" t="n">
-        <v>14504315</v>
+        <v>0</v>
       </c>
       <c r="BZ45" t="n">
         <v>0</v>
@@ -13526,7 +13526,7 @@
         <v>0</v>
       </c>
       <c r="CN45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO45" t="n">
         <v>0</v>
@@ -13543,31 +13543,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>11001961</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>40442052</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>186435244</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.8217</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>40000000000000</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>5.671900000000001</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>6.465273369634317</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -13582,7 +13582,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -13606,10 +13606,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -13705,10 +13705,10 @@
         <v>0</v>
       </c>
       <c r="BD46" t="n">
-        <v>40000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE46" t="n">
-        <v>5.671900000000001</v>
+        <v>0</v>
       </c>
       <c r="BF46" t="n">
         <v>0</v>
@@ -13729,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="BL46" t="n">
-        <v>40442052</v>
+        <v>1</v>
       </c>
       <c r="BM46" t="n">
         <v>0</v>
@@ -13744,7 +13744,7 @@
         <v>0</v>
       </c>
       <c r="BQ46" t="n">
-        <v>186435244</v>
+        <v>0</v>
       </c>
       <c r="BR46" t="n">
         <v>0</v>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="BT46" t="n">
-        <v>6.465273369634317</v>
+        <v>0</v>
       </c>
       <c r="BU46" t="n">
         <v>0</v>
@@ -13765,10 +13765,10 @@
         <v>0</v>
       </c>
       <c r="BX46" t="n">
-        <v>0.8217</v>
+        <v>0</v>
       </c>
       <c r="BY46" t="n">
-        <v>11001961</v>
+        <v>0</v>
       </c>
       <c r="BZ46" t="n">
         <v>0</v>
@@ -13792,13 +13792,13 @@
         <v>0</v>
       </c>
       <c r="CG46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH46" t="n">
         <v>0</v>
       </c>
       <c r="CI46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ46" t="n">
         <v>0</v>
@@ -13830,31 +13830,31 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>338999</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>4153783</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>25419</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0.0061</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>54700000000000</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>5.583269230769232</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>6.442958260943271</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -13863,7 +13863,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -13893,10 +13893,10 @@
         <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Y47" t="n">
         <v>0</v>
@@ -13992,10 +13992,10 @@
         <v>0</v>
       </c>
       <c r="BD47" t="n">
-        <v>54700000000000</v>
+        <v>0</v>
       </c>
       <c r="BE47" t="n">
-        <v>5.583269230769232</v>
+        <v>0</v>
       </c>
       <c r="BF47" t="n">
         <v>0</v>
@@ -14016,10 +14016,10 @@
         <v>0</v>
       </c>
       <c r="BL47" t="n">
-        <v>4153783</v>
+        <v>0</v>
       </c>
       <c r="BM47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN47" t="n">
         <v>0</v>
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="BQ47" t="n">
-        <v>25419</v>
+        <v>0</v>
       </c>
       <c r="BR47" t="n">
         <v>0</v>
@@ -14040,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="BT47" t="n">
-        <v>6.442958260943271</v>
+        <v>0</v>
       </c>
       <c r="BU47" t="n">
         <v>0</v>
@@ -14049,16 +14049,16 @@
         <v>0</v>
       </c>
       <c r="BW47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX47" t="n">
-        <v>0.0061</v>
+        <v>0</v>
       </c>
       <c r="BY47" t="n">
-        <v>338999</v>
+        <v>0</v>
       </c>
       <c r="BZ47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA47" t="n">
         <v>0</v>
@@ -14088,7 +14088,7 @@
         <v>0</v>
       </c>
       <c r="CJ47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK47" t="n">
         <v>0</v>
@@ -14117,31 +14117,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>53807379</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>117450119</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>248100000</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.6787000000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>22000000000000</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>16.6159</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>6.41915547833949</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -14150,13 +14150,13 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -14180,10 +14180,10 @@
         <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
         <v>0</v>
@@ -14279,10 +14279,10 @@
         <v>0</v>
       </c>
       <c r="BD48" t="n">
-        <v>22000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE48" t="n">
-        <v>16.6159</v>
+        <v>0</v>
       </c>
       <c r="BF48" t="n">
         <v>0</v>
@@ -14303,7 +14303,7 @@
         <v>0</v>
       </c>
       <c r="BL48" t="n">
-        <v>117450119</v>
+        <v>0</v>
       </c>
       <c r="BM48" t="n">
         <v>0</v>
@@ -14318,16 +14318,16 @@
         <v>0</v>
       </c>
       <c r="BQ48" t="n">
-        <v>248100000</v>
+        <v>0</v>
       </c>
       <c r="BR48" t="n">
         <v>0</v>
       </c>
       <c r="BS48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT48" t="n">
-        <v>6.41915547833949</v>
+        <v>0</v>
       </c>
       <c r="BU48" t="n">
         <v>0</v>
@@ -14339,10 +14339,10 @@
         <v>0</v>
       </c>
       <c r="BX48" t="n">
-        <v>0.6787000000000001</v>
+        <v>0</v>
       </c>
       <c r="BY48" t="n">
-        <v>53807379</v>
+        <v>0</v>
       </c>
       <c r="BZ48" t="n">
         <v>0</v>
@@ -14354,7 +14354,7 @@
         <v>0</v>
       </c>
       <c r="CC48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD48" t="n">
         <v>0</v>
@@ -14366,7 +14366,7 @@
         <v>0</v>
       </c>
       <c r="CG48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH48" t="n">
         <v>0</v>
@@ -14393,7 +14393,7 @@
         <v>0</v>
       </c>
       <c r="CP48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ48" t="n">
         <v>0</v>
@@ -14404,31 +14404,31 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>12891123</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>45630104</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>84668080</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>0.6498</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>90000000000000</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1.4478</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -14437,13 +14437,13 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -14467,10 +14467,10 @@
         <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
         <v>0</v>
@@ -14566,10 +14566,10 @@
         <v>0</v>
       </c>
       <c r="BD49" t="n">
-        <v>90000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE49" t="n">
-        <v>1.4478</v>
+        <v>0</v>
       </c>
       <c r="BF49" t="n">
         <v>0</v>
@@ -14581,7 +14581,7 @@
         <v>0</v>
       </c>
       <c r="BI49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ49" t="n">
         <v>0</v>
@@ -14590,7 +14590,7 @@
         <v>0</v>
       </c>
       <c r="BL49" t="n">
-        <v>45630104</v>
+        <v>0</v>
       </c>
       <c r="BM49" t="n">
         <v>0</v>
@@ -14605,7 +14605,7 @@
         <v>0</v>
       </c>
       <c r="BQ49" t="n">
-        <v>84668080</v>
+        <v>1</v>
       </c>
       <c r="BR49" t="n">
         <v>0</v>
@@ -14614,7 +14614,7 @@
         <v>0</v>
       </c>
       <c r="BT49" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="BU49" t="n">
         <v>0</v>
@@ -14623,13 +14623,13 @@
         <v>0</v>
       </c>
       <c r="BW49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX49" t="n">
-        <v>0.6498</v>
+        <v>0</v>
       </c>
       <c r="BY49" t="n">
-        <v>12891123</v>
+        <v>0</v>
       </c>
       <c r="BZ49" t="n">
         <v>0</v>
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="CD49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE49" t="n">
         <v>0</v>
@@ -14653,7 +14653,7 @@
         <v>0</v>
       </c>
       <c r="CG49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH49" t="n">
         <v>0</v>
@@ -14680,7 +14680,7 @@
         <v>0</v>
       </c>
       <c r="CP49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ49" t="n">
         <v>0</v>
@@ -14691,34 +14691,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>357115007</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>858373000</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1939427564</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>69.3</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>356000000000000</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>7.859</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -14727,7 +14727,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -14742,7 +14742,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
@@ -14754,10 +14754,10 @@
         <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="Y50" t="n">
         <v>0</v>
@@ -14853,10 +14853,10 @@
         <v>0</v>
       </c>
       <c r="BD50" t="n">
-        <v>356000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE50" t="n">
-        <v>7.859</v>
+        <v>0</v>
       </c>
       <c r="BF50" t="n">
         <v>0</v>
@@ -14877,7 +14877,7 @@
         <v>0</v>
       </c>
       <c r="BL50" t="n">
-        <v>858373000</v>
+        <v>0</v>
       </c>
       <c r="BM50" t="n">
         <v>0</v>
@@ -14892,7 +14892,7 @@
         <v>0</v>
       </c>
       <c r="BQ50" t="n">
-        <v>1939427564</v>
+        <v>0</v>
       </c>
       <c r="BR50" t="n">
         <v>0</v>
@@ -14901,7 +14901,7 @@
         <v>0</v>
       </c>
       <c r="BT50" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="BU50" t="n">
         <v>0</v>
@@ -14913,10 +14913,10 @@
         <v>0</v>
       </c>
       <c r="BX50" t="n">
-        <v>69.3</v>
+        <v>0</v>
       </c>
       <c r="BY50" t="n">
-        <v>357115007</v>
+        <v>1</v>
       </c>
       <c r="BZ50" t="n">
         <v>0</v>
@@ -14934,7 +14934,7 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF50" t="n">
         <v>0</v>
@@ -14978,34 +14978,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>53505326</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>56830326</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>102300000</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>64.3</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>100000000000000</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1.5913</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -15014,7 +15014,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -15029,10 +15029,10 @@
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
@@ -15041,10 +15041,10 @@
         <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="Y51" t="n">
         <v>0</v>
@@ -15140,16 +15140,16 @@
         <v>0</v>
       </c>
       <c r="BD51" t="n">
-        <v>100000000000000</v>
+        <v>0</v>
       </c>
       <c r="BE51" t="n">
-        <v>1.5913</v>
+        <v>0</v>
       </c>
       <c r="BF51" t="n">
         <v>0</v>
       </c>
       <c r="BG51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH51" t="n">
         <v>0</v>
@@ -15161,10 +15161,10 @@
         <v>0</v>
       </c>
       <c r="BK51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL51" t="n">
-        <v>56830326</v>
+        <v>1</v>
       </c>
       <c r="BM51" t="n">
         <v>0</v>
@@ -15179,7 +15179,7 @@
         <v>0</v>
       </c>
       <c r="BQ51" t="n">
-        <v>102300000</v>
+        <v>0</v>
       </c>
       <c r="BR51" t="n">
         <v>0</v>
@@ -15188,7 +15188,7 @@
         <v>0</v>
       </c>
       <c r="BT51" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BU51" t="n">
         <v>0</v>
@@ -15200,10 +15200,10 @@
         <v>0</v>
       </c>
       <c r="BX51" t="n">
-        <v>64.3</v>
+        <v>0</v>
       </c>
       <c r="BY51" t="n">
-        <v>53505326</v>
+        <v>1</v>
       </c>
       <c r="BZ51" t="n">
         <v>0</v>
@@ -15221,7 +15221,7 @@
         <v>0</v>
       </c>
       <c r="CE51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF51" t="n">
         <v>0</v>

--- a/predictionsTwo.xlsx
+++ b/predictionsTwo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQ51"/>
+  <dimension ref="A1:CO51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,247 +536,247 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>ben wilkins and thomas curley)</t>
+          <t>best actor</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>best actor</t>
+          <t xml:space="preserve">best actor </t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>best actor (matthew mcconaughey)</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>best actress</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">best actress </t>
+        </is>
+      </c>
       <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>best actress (cate blanchett)</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>best adapted screenplay</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>best animated feature</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>best animated film</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>best art direction</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>best cinematography</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>best director</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>best editing</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>best film editing</t>
         </is>
       </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">best film editing </t>
+        </is>
+      </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>best film editing (tom cross)</t>
+          <t xml:space="preserve">best makeup and hairstyling </t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>best makeup and hairstyling (adruitha lee and robin mathews)</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>best original screenplay</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">best original screenplay </t>
+        </is>
+      </c>
       <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>best original screenplay (spike jonze)</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>best original song</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>best picture</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>best sound</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>best sound editing</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>best sound mixing</t>
         </is>
       </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">best sound mixing </t>
+        </is>
+      </c>
       <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>best sound mixing (craig mann</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>best supporting actor</t>
         </is>
       </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">best supporting actor </t>
+        </is>
+      </c>
       <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>best supporting actor (j.k. simmons)</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>best supporting actor (jared leto)</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>best supporting actress</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>best supporting actress (patricia arquette)</t>
+          <t xml:space="preserve">best supporting actress </t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>best visual effects</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>cinematography</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>costume design</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>directing</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>film editing</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>make up and hair styling</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>original song</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>production design</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>sound editing</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>sound mixing</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>visual effects</t>
         </is>
       </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">writing </t>
+        </is>
+      </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>writing (adapted screenplay)</t>
+          <t>drama</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>writing (original screenplay)</t>
+          <t>action</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>sports</t>
+          <t>crime</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>comedy</t>
+          <t>fantasy</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>adventure</t>
+          <t>western</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>romantic</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>sci-fi</t>
         </is>
       </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>war</t>
+        </is>
+      </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>animation</t>
+          <t>documentary</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>mystery</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>mystery</t>
+          <t>horror</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
@@ -786,125 +786,115 @@
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>documentary</t>
+          <t>adventure</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>comedy</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>thrilled</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>period</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>war</t>
+          <t>sports</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>romantic</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>biography</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>drama</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>fantasy</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>action</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>western</t>
-        </is>
-      </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>thrilled</t>
+          <t>animation</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>horror</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>crime</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>_april</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>_august</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>_december</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>_february</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>_january</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>_july</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>_june</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>_march</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>_may</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>_november</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>_october</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>_september</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>Predicted_Oscar_Winners</t>
         </is>
@@ -1092,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ2" t="n">
         <v>0</v>
@@ -1140,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
@@ -1182,19 +1172,13 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
       </c>
       <c r="CO2" t="n">
         <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1400,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ3" t="n">
         <v>0</v>
@@ -1415,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV3" t="n">
         <v>0</v>
@@ -1469,19 +1453,13 @@
         <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN3" t="n">
         <v>0</v>
       </c>
       <c r="CO3" t="n">
         <v>1</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1672,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
         <v>0</v>
@@ -1705,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -1744,13 +1722,13 @@
         <v>0</v>
       </c>
       <c r="CI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
       </c>
       <c r="CK4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL4" t="n">
         <v>0</v>
@@ -1762,13 +1740,7 @@
         <v>0</v>
       </c>
       <c r="CO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1959,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL5" t="n">
         <v>0</v>
@@ -1998,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY5" t="n">
         <v>0</v>
@@ -2031,13 +2003,13 @@
         <v>0</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ5" t="n">
         <v>0</v>
       </c>
       <c r="CK5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
         <v>0</v>
@@ -2049,13 +2021,7 @@
         <v>0</v>
       </c>
       <c r="CO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2246,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
         <v>0</v>
@@ -2279,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -2324,25 +2290,19 @@
         <v>0</v>
       </c>
       <c r="CK6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL6" t="n">
         <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
         <v>0</v>
       </c>
       <c r="CO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2524,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="BH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI7" t="n">
         <v>0</v>
@@ -2566,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY7" t="n">
         <v>0</v>
@@ -2614,22 +2574,16 @@
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -2820,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
@@ -2838,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR8" t="n">
         <v>0</v>
@@ -2853,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -2874,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
@@ -2892,13 +2846,13 @@
         <v>0</v>
       </c>
       <c r="CI8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ8" t="n">
         <v>0</v>
       </c>
       <c r="CK8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL8" t="n">
         <v>0</v>
@@ -2910,13 +2864,7 @@
         <v>0</v>
       </c>
       <c r="CO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3110,13 +3058,13 @@
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
         <v>0</v>
@@ -3131,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT9" t="n">
         <v>0</v>
@@ -3182,13 +3130,13 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK9" t="n">
         <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
         <v>0</v>
@@ -3197,13 +3145,7 @@
         <v>0</v>
       </c>
       <c r="CO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -3394,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
         <v>0</v>
@@ -3427,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW10" t="n">
         <v>0</v>
@@ -3469,13 +3411,13 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK10" t="n">
         <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM10" t="n">
         <v>0</v>
@@ -3484,13 +3426,7 @@
         <v>0</v>
       </c>
       <c r="CO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -3684,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM11" t="n">
         <v>0</v>
@@ -3705,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11" t="n">
         <v>0</v>
@@ -3753,13 +3689,13 @@
         <v>0</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ11" t="n">
         <v>0</v>
       </c>
       <c r="CK11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL11" t="n">
         <v>0</v>
@@ -3771,13 +3707,7 @@
         <v>0</v>
       </c>
       <c r="CO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -3968,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL12" t="n">
         <v>0</v>
@@ -4007,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY12" t="n">
         <v>0</v>
@@ -4055,16 +3985,10 @@
         <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -4282,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -4300,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA13" t="n">
         <v>0</v>
@@ -4327,13 +4251,13 @@
         <v>0</v>
       </c>
       <c r="CI13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ13" t="n">
         <v>0</v>
       </c>
       <c r="CK13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL13" t="n">
         <v>0</v>
@@ -4345,13 +4269,7 @@
         <v>0</v>
       </c>
       <c r="CO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -4533,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="BH14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI14" t="n">
         <v>0</v>
@@ -4578,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="BW14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
         <v>0</v>
@@ -4614,13 +4532,13 @@
         <v>0</v>
       </c>
       <c r="CI14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ14" t="n">
         <v>0</v>
       </c>
       <c r="CK14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL14" t="n">
         <v>0</v>
@@ -4632,13 +4550,7 @@
         <v>0</v>
       </c>
       <c r="CO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -4829,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL15" t="n">
         <v>0</v>
@@ -4862,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -4913,19 +4825,13 @@
         <v>0</v>
       </c>
       <c r="CM15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN15" t="n">
         <v>0</v>
       </c>
       <c r="CO15" t="n">
         <v>1</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -5122,10 +5028,10 @@
         <v>0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO16" t="n">
         <v>0</v>
@@ -5134,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR16" t="n">
         <v>0</v>
@@ -5170,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="CC16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD16" t="n">
         <v>0</v>
@@ -5197,22 +5103,16 @@
         <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM16" t="n">
         <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -5397,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ17" t="n">
         <v>0</v>
@@ -5445,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="BY17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ17" t="n">
         <v>0</v>
@@ -5472,13 +5372,13 @@
         <v>0</v>
       </c>
       <c r="CH17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI17" t="n">
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK17" t="n">
         <v>0</v>
@@ -5493,13 +5393,7 @@
         <v>0</v>
       </c>
       <c r="CO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -5693,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="BL18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM18" t="n">
         <v>0</v>
@@ -5714,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="BS18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT18" t="n">
         <v>0</v>
@@ -5753,13 +5647,13 @@
         <v>0</v>
       </c>
       <c r="CF18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG18" t="n">
         <v>0</v>
       </c>
       <c r="CH18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI18" t="n">
         <v>0</v>
@@ -5780,13 +5674,7 @@
         <v>0</v>
       </c>
       <c r="CO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -6040,13 +5928,13 @@
         <v>0</v>
       </c>
       <c r="CF19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG19" t="n">
         <v>0</v>
       </c>
       <c r="CH19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI19" t="n">
         <v>0</v>
@@ -6067,13 +5955,7 @@
         <v>0</v>
       </c>
       <c r="CO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -6255,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="BH20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI20" t="n">
         <v>0</v>
@@ -6300,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="BW20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX20" t="n">
         <v>0</v>
@@ -6324,13 +6206,13 @@
         <v>0</v>
       </c>
       <c r="CE20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF20" t="n">
         <v>0</v>
       </c>
       <c r="CG20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH20" t="n">
         <v>0</v>
@@ -6354,13 +6236,7 @@
         <v>0</v>
       </c>
       <c r="CO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -6563,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="BO21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
@@ -6602,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="CB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC21" t="n">
         <v>0</v>
@@ -6632,22 +6508,16 @@
         <v>0</v>
       </c>
       <c r="CL21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM21" t="n">
         <v>0</v>
       </c>
       <c r="CN21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -6919,21 +6789,15 @@
         <v>0</v>
       </c>
       <c r="CL22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM22" t="n">
         <v>0</v>
       </c>
       <c r="CN22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7116,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="BH23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI23" t="n">
         <v>0</v>
@@ -7161,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="BW23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX23" t="n">
         <v>0</v>
@@ -7200,13 +7064,13 @@
         <v>0</v>
       </c>
       <c r="CJ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK23" t="n">
         <v>0</v>
       </c>
       <c r="CL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM23" t="n">
         <v>0</v>
@@ -7215,13 +7079,7 @@
         <v>0</v>
       </c>
       <c r="CO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -7427,10 +7285,10 @@
         <v>0</v>
       </c>
       <c r="BP24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR24" t="n">
         <v>1</v>
@@ -7448,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="BW24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX24" t="n">
         <v>0</v>
@@ -7463,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="CB24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC24" t="n">
         <v>0</v>
@@ -7487,13 +7345,13 @@
         <v>0</v>
       </c>
       <c r="CJ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK24" t="n">
         <v>0</v>
       </c>
       <c r="CL24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM24" t="n">
         <v>0</v>
@@ -7502,13 +7360,7 @@
         <v>0</v>
       </c>
       <c r="CO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -7780,22 +7632,16 @@
         <v>0</v>
       </c>
       <c r="CL25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM25" t="n">
         <v>0</v>
       </c>
       <c r="CN25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -8001,10 +7847,10 @@
         <v>0</v>
       </c>
       <c r="BP26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR26" t="n">
         <v>0</v>
@@ -8022,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="BW26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX26" t="n">
         <v>0</v>
@@ -8037,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="CB26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC26" t="n">
         <v>0</v>
@@ -8067,22 +7913,16 @@
         <v>0</v>
       </c>
       <c r="CL26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM26" t="n">
         <v>0</v>
       </c>
       <c r="CN26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -8333,13 +8173,13 @@
         <v>0</v>
       </c>
       <c r="CE27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF27" t="n">
         <v>0</v>
       </c>
       <c r="CG27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH27" t="n">
         <v>0</v>
@@ -8363,13 +8203,7 @@
         <v>0</v>
       </c>
       <c r="CO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -8563,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="BL28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM28" t="n">
         <v>0</v>
@@ -8584,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="BS28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT28" t="n">
         <v>0</v>
@@ -8617,13 +8451,13 @@
         <v>0</v>
       </c>
       <c r="CD28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE28" t="n">
         <v>0</v>
       </c>
       <c r="CF28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG28" t="n">
         <v>0</v>
@@ -8650,13 +8484,7 @@
         <v>0</v>
       </c>
       <c r="CO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -8847,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="BK29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL29" t="n">
         <v>0</v>
@@ -8880,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="BV29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW29" t="n">
         <v>0</v>
@@ -8919,13 +8747,13 @@
         <v>0</v>
       </c>
       <c r="CI29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ29" t="n">
         <v>0</v>
       </c>
       <c r="CK29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL29" t="n">
         <v>0</v>
@@ -8937,13 +8765,7 @@
         <v>0</v>
       </c>
       <c r="CO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP29" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -9149,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="BP30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ30" t="n">
         <v>0</v>
@@ -9164,16 +8986,16 @@
         <v>0</v>
       </c>
       <c r="BU30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW30" t="n">
         <v>0</v>
       </c>
       <c r="BX30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY30" t="n">
         <v>0</v>
@@ -9206,13 +9028,13 @@
         <v>0</v>
       </c>
       <c r="CI30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ30" t="n">
         <v>0</v>
       </c>
       <c r="CK30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL30" t="n">
         <v>0</v>
@@ -9224,13 +9046,7 @@
         <v>0</v>
       </c>
       <c r="CO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP30" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -9412,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="BH31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI31" t="n">
         <v>0</v>
@@ -9436,10 +9252,10 @@
         <v>0</v>
       </c>
       <c r="BP31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR31" t="n">
         <v>0</v>
@@ -9448,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="BT31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU31" t="n">
         <v>0</v>
@@ -9466,13 +9282,13 @@
         <v>0</v>
       </c>
       <c r="BZ31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA31" t="n">
         <v>0</v>
       </c>
       <c r="CB31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC31" t="n">
         <v>0</v>
@@ -9493,13 +9309,13 @@
         <v>0</v>
       </c>
       <c r="CI31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ31" t="n">
         <v>0</v>
       </c>
       <c r="CK31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL31" t="n">
         <v>0</v>
@@ -9511,13 +9327,7 @@
         <v>0</v>
       </c>
       <c r="CO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -9699,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="BH32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI32" t="n">
         <v>0</v>
@@ -9744,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="BW32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX32" t="n">
         <v>0</v>
@@ -9768,13 +9578,13 @@
         <v>0</v>
       </c>
       <c r="CE32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF32" t="n">
         <v>0</v>
       </c>
       <c r="CG32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH32" t="n">
         <v>0</v>
@@ -9798,13 +9608,7 @@
         <v>0</v>
       </c>
       <c r="CO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -9986,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="BH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI33" t="n">
         <v>0</v>
@@ -10031,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="BW33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX33" t="n">
         <v>0</v>
@@ -10079,19 +9883,13 @@
         <v>0</v>
       </c>
       <c r="CM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN33" t="n">
         <v>0</v>
       </c>
       <c r="CO33" t="n">
         <v>1</v>
-      </c>
-      <c r="CP33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -10351,13 +10149,13 @@
         <v>0</v>
       </c>
       <c r="CH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI34" t="n">
         <v>0</v>
       </c>
       <c r="CJ34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK34" t="n">
         <v>0</v>
@@ -10372,13 +10170,7 @@
         <v>0</v>
       </c>
       <c r="CO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -10569,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="BK35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL35" t="n">
         <v>0</v>
@@ -10602,7 +10394,7 @@
         <v>0</v>
       </c>
       <c r="BV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW35" t="n">
         <v>0</v>
@@ -10650,22 +10442,16 @@
         <v>0</v>
       </c>
       <c r="CL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM35" t="n">
         <v>0</v>
       </c>
       <c r="CN35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -10874,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="BQ36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR36" t="n">
         <v>0</v>
@@ -10916,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="CE36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF36" t="n">
         <v>0</v>
@@ -10946,13 +10732,7 @@
         <v>0</v>
       </c>
       <c r="CO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -11143,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="BK37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL37" t="n">
         <v>0</v>
@@ -11176,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="BV37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW37" t="n">
         <v>0</v>
@@ -11221,25 +11001,19 @@
         <v>0</v>
       </c>
       <c r="CK37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL37" t="n">
         <v>0</v>
       </c>
       <c r="CM37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN37" t="n">
         <v>0</v>
       </c>
       <c r="CO37" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP37" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -11421,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="BH38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI38" t="n">
         <v>0</v>
@@ -11466,7 +11240,7 @@
         <v>0</v>
       </c>
       <c r="BW38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX38" t="n">
         <v>0</v>
@@ -11487,13 +11261,13 @@
         <v>0</v>
       </c>
       <c r="CD38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE38" t="n">
         <v>0</v>
       </c>
       <c r="CF38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG38" t="n">
         <v>0</v>
@@ -11520,13 +11294,7 @@
         <v>0</v>
       </c>
       <c r="CO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP38" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -11708,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="BH39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI39" t="n">
         <v>0</v>
@@ -11753,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="BW39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX39" t="n">
         <v>0</v>
@@ -11774,13 +11542,13 @@
         <v>0</v>
       </c>
       <c r="CD39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE39" t="n">
         <v>0</v>
       </c>
       <c r="CF39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG39" t="n">
         <v>0</v>
@@ -11807,12 +11575,6 @@
         <v>0</v>
       </c>
       <c r="CO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11998,7 +11760,7 @@
         <v>0</v>
       </c>
       <c r="BI40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ40" t="n">
         <v>0</v>
@@ -12046,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="BY40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ40" t="n">
         <v>0</v>
@@ -12082,25 +11844,19 @@
         <v>0</v>
       </c>
       <c r="CK40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL40" t="n">
         <v>0</v>
       </c>
       <c r="CM40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN40" t="n">
         <v>0</v>
       </c>
       <c r="CO40" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP40" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -12327,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="BW41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX41" t="n">
         <v>0</v>
@@ -12342,19 +12098,19 @@
         <v>0</v>
       </c>
       <c r="CB41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC41" t="n">
         <v>0</v>
       </c>
       <c r="CD41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE41" t="n">
         <v>0</v>
       </c>
       <c r="CF41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG41" t="n">
         <v>0</v>
@@ -12381,13 +12137,7 @@
         <v>0</v>
       </c>
       <c r="CO41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -12572,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="BI42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ42" t="n">
         <v>0</v>
@@ -12620,7 +12370,7 @@
         <v>0</v>
       </c>
       <c r="BY42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ42" t="n">
         <v>0</v>
@@ -12659,22 +12409,16 @@
         <v>0</v>
       </c>
       <c r="CL42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM42" t="n">
         <v>0</v>
       </c>
       <c r="CN42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -12925,13 +12669,13 @@
         <v>0</v>
       </c>
       <c r="CE43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF43" t="n">
         <v>0</v>
       </c>
       <c r="CG43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH43" t="n">
         <v>0</v>
@@ -12955,13 +12699,7 @@
         <v>0</v>
       </c>
       <c r="CO43" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP43" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -13212,13 +12950,13 @@
         <v>0</v>
       </c>
       <c r="CE44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF44" t="n">
         <v>0</v>
       </c>
       <c r="CG44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH44" t="n">
         <v>0</v>
@@ -13242,13 +12980,7 @@
         <v>0</v>
       </c>
       <c r="CO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -13439,7 +13171,7 @@
         <v>0</v>
       </c>
       <c r="BK45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL45" t="n">
         <v>0</v>
@@ -13472,7 +13204,7 @@
         <v>0</v>
       </c>
       <c r="BV45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW45" t="n">
         <v>0</v>
@@ -13520,22 +13252,16 @@
         <v>0</v>
       </c>
       <c r="CL45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM45" t="n">
         <v>0</v>
       </c>
       <c r="CN45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -13729,7 +13455,7 @@
         <v>0</v>
       </c>
       <c r="BL46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM46" t="n">
         <v>0</v>
@@ -13750,7 +13476,7 @@
         <v>0</v>
       </c>
       <c r="BS46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT46" t="n">
         <v>0</v>
@@ -13792,13 +13518,13 @@
         <v>0</v>
       </c>
       <c r="CG46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH46" t="n">
         <v>0</v>
       </c>
       <c r="CI46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ46" t="n">
         <v>0</v>
@@ -13816,13 +13542,7 @@
         <v>0</v>
       </c>
       <c r="CO46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -14004,7 +13724,7 @@
         <v>0</v>
       </c>
       <c r="BH47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI47" t="n">
         <v>0</v>
@@ -14049,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="BW47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX47" t="n">
         <v>0</v>
@@ -14082,13 +13802,13 @@
         <v>0</v>
       </c>
       <c r="CH47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI47" t="n">
         <v>0</v>
       </c>
       <c r="CJ47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK47" t="n">
         <v>0</v>
@@ -14103,13 +13823,7 @@
         <v>0</v>
       </c>
       <c r="CO47" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP47" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -14318,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="BQ48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR48" t="n">
         <v>0</v>
@@ -14354,7 +14068,7 @@
         <v>0</v>
       </c>
       <c r="CC48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD48" t="n">
         <v>0</v>
@@ -14387,16 +14101,10 @@
         <v>0</v>
       </c>
       <c r="CN48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP48" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -14584,7 +14292,7 @@
         <v>0</v>
       </c>
       <c r="BJ49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK49" t="n">
         <v>0</v>
@@ -14602,10 +14310,10 @@
         <v>0</v>
       </c>
       <c r="BP49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR49" t="n">
         <v>0</v>
@@ -14644,7 +14352,7 @@
         <v>0</v>
       </c>
       <c r="CD49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE49" t="n">
         <v>0</v>
@@ -14674,16 +14382,10 @@
         <v>0</v>
       </c>
       <c r="CN49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP49" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -14868,7 +14570,7 @@
         <v>0</v>
       </c>
       <c r="BI50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ50" t="n">
         <v>0</v>
@@ -14916,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="BY50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ50" t="n">
         <v>0</v>
@@ -14928,13 +14630,13 @@
         <v>0</v>
       </c>
       <c r="CC50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD50" t="n">
         <v>0</v>
       </c>
       <c r="CE50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF50" t="n">
         <v>0</v>
@@ -14964,13 +14666,7 @@
         <v>0</v>
       </c>
       <c r="CO50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -15155,16 +14851,16 @@
         <v>0</v>
       </c>
       <c r="BI51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ51" t="n">
         <v>0</v>
       </c>
       <c r="BK51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM51" t="n">
         <v>0</v>
@@ -15185,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="BS51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT51" t="n">
         <v>0</v>
@@ -15194,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="BV51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW51" t="n">
         <v>0</v>
@@ -15203,7 +14899,7 @@
         <v>0</v>
       </c>
       <c r="BY51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ51" t="n">
         <v>0</v>
@@ -15215,13 +14911,13 @@
         <v>0</v>
       </c>
       <c r="CC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD51" t="n">
         <v>0</v>
       </c>
       <c r="CE51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF51" t="n">
         <v>0</v>
@@ -15251,13 +14947,7 @@
         <v>0</v>
       </c>
       <c r="CO51" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP51" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
